--- a/docs/excel/TParking.xlsx
+++ b/docs/excel/TParking.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
+    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TParking" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>TableName: "THouse" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>收入百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "TParking" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,7 +529,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="7"/>
@@ -560,13 +560,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7"/>
@@ -580,13 +580,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="9"/>
@@ -717,8 +717,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8">
